--- a/backend/qa.xlsx
+++ b/backend/qa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Temp\frdproject\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C69E6398-C20C-4654-B548-60B454410BE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E05ABE2A-CA79-4164-9D1E-A7DCB7B32E95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{354D6938-7A67-4D52-BC71-C7A7A9C2CC14}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="329">
   <si>
     <t>A</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -909,10 +909,6 @@
   </si>
   <si>
     <t>633ad64ac83a09cf37a0480f</t>
-  </si>
-  <si>
-    <t>633ad64ac83a09cf37a0480e</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>633ad64ac83a09cf37a04810</t>
@@ -2093,8 +2089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0D317D9-B6F3-487E-81C8-6670C7B98211}">
   <dimension ref="A1:H126"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -2114,7 +2110,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>0</v>
@@ -2132,7 +2128,7 @@
         <v>4</v>
       </c>
       <c r="H1" s="23" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="33" x14ac:dyDescent="0.25">
@@ -2158,7 +2154,7 @@
         <v>22</v>
       </c>
       <c r="H2" s="25" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="33" x14ac:dyDescent="0.25">
@@ -2183,8 +2179,8 @@
       <c r="G3" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="24" t="s">
-        <v>179</v>
+      <c r="H3" s="25" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="33" x14ac:dyDescent="0.25">
@@ -2210,7 +2206,7 @@
         <v>31</v>
       </c>
       <c r="H4" s="25" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="33" x14ac:dyDescent="0.25">
@@ -2236,7 +2232,7 @@
         <v>36</v>
       </c>
       <c r="H5" s="25" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="33" x14ac:dyDescent="0.25">
@@ -2262,7 +2258,7 @@
         <v>41</v>
       </c>
       <c r="H6" s="25" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="33" x14ac:dyDescent="0.25">
@@ -2288,7 +2284,7 @@
         <v>8</v>
       </c>
       <c r="H7" s="25" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="82.5" x14ac:dyDescent="0.25">
@@ -2314,7 +2310,7 @@
         <v>12</v>
       </c>
       <c r="H8" s="25" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -2340,7 +2336,7 @@
         <v>17</v>
       </c>
       <c r="H9" s="25" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -2366,7 +2362,7 @@
         <v>70</v>
       </c>
       <c r="H10" s="25" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="33" x14ac:dyDescent="0.25">
@@ -2392,7 +2388,7 @@
         <v>77</v>
       </c>
       <c r="H11" s="25" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="33" x14ac:dyDescent="0.25">
@@ -2418,7 +2414,7 @@
         <v>45</v>
       </c>
       <c r="H12" s="25" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="33" x14ac:dyDescent="0.25">
@@ -2444,7 +2440,7 @@
         <v>51</v>
       </c>
       <c r="H13" s="25" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="33" x14ac:dyDescent="0.25">
@@ -2470,7 +2466,7 @@
         <v>59</v>
       </c>
       <c r="H14" s="25" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="33" x14ac:dyDescent="0.25">
@@ -2496,7 +2492,7 @@
         <v>60</v>
       </c>
       <c r="H15" s="25" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="33" x14ac:dyDescent="0.25">
@@ -2522,7 +2518,7 @@
         <v>65</v>
       </c>
       <c r="H16" s="25" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="49.5" x14ac:dyDescent="0.25">
@@ -2548,7 +2544,7 @@
         <v>80</v>
       </c>
       <c r="H17" s="25" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="33" x14ac:dyDescent="0.25">
@@ -2573,8 +2569,8 @@
       <c r="G18" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="H18" s="25" t="s">
-        <v>184</v>
+      <c r="H18" s="24" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="33" x14ac:dyDescent="0.25">
@@ -2600,7 +2596,7 @@
         <v>91</v>
       </c>
       <c r="H19" s="25" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="33" x14ac:dyDescent="0.25">
@@ -2626,7 +2622,7 @@
         <v>97</v>
       </c>
       <c r="H20" s="25" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="33" x14ac:dyDescent="0.25">
@@ -2652,7 +2648,7 @@
         <v>104</v>
       </c>
       <c r="H21" s="25" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="49.5" x14ac:dyDescent="0.25">
@@ -2808,7 +2804,7 @@
         <v>80</v>
       </c>
       <c r="H27" s="25" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="33" x14ac:dyDescent="0.25">
@@ -2834,7 +2830,7 @@
         <v>86</v>
       </c>
       <c r="H28" s="25" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="33" x14ac:dyDescent="0.25">
@@ -2860,7 +2856,7 @@
         <v>91</v>
       </c>
       <c r="H29" s="25" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="33" x14ac:dyDescent="0.25">
@@ -2886,7 +2882,7 @@
         <v>97</v>
       </c>
       <c r="H30" s="25" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="33" x14ac:dyDescent="0.25">
@@ -2912,7 +2908,7 @@
         <v>104</v>
       </c>
       <c r="H31" s="25" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -2938,7 +2934,7 @@
         <v>144</v>
       </c>
       <c r="H32" s="25" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -2964,7 +2960,7 @@
         <v>147</v>
       </c>
       <c r="H33" s="25" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -2990,7 +2986,7 @@
         <v>151</v>
       </c>
       <c r="H34" s="25" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -3016,7 +3012,7 @@
         <v>159</v>
       </c>
       <c r="H35" s="25" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -3042,7 +3038,7 @@
         <v>161</v>
       </c>
       <c r="H36" s="25" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -3068,7 +3064,7 @@
         <v>144</v>
       </c>
       <c r="H37" s="25" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -3094,7 +3090,7 @@
         <v>147</v>
       </c>
       <c r="H38" s="25" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -3120,7 +3116,7 @@
         <v>151</v>
       </c>
       <c r="H39" s="25" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -3146,7 +3142,7 @@
         <v>159</v>
       </c>
       <c r="H40" s="25" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -3172,7 +3168,7 @@
         <v>161</v>
       </c>
       <c r="H41" s="25" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -3198,7 +3194,7 @@
         <v>144</v>
       </c>
       <c r="H42" s="25" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -3224,7 +3220,7 @@
         <v>147</v>
       </c>
       <c r="H43" s="25" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -3250,7 +3246,7 @@
         <v>151</v>
       </c>
       <c r="H44" s="25" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -3276,7 +3272,7 @@
         <v>159</v>
       </c>
       <c r="H45" s="25" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -3302,7 +3298,7 @@
         <v>161</v>
       </c>
       <c r="H46" s="25" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -3328,7 +3324,7 @@
         <v>144</v>
       </c>
       <c r="H47" s="25" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -3353,8 +3349,8 @@
       <c r="G48" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="H48" s="25" t="s">
-        <v>184</v>
+      <c r="H48" s="24" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -3380,7 +3376,7 @@
         <v>151</v>
       </c>
       <c r="H49" s="25" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -3406,7 +3402,7 @@
         <v>159</v>
       </c>
       <c r="H50" s="25" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -3432,7 +3428,7 @@
         <v>161</v>
       </c>
       <c r="H51" s="25" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -3588,7 +3584,7 @@
         <v>144</v>
       </c>
       <c r="H57" s="25" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -3614,7 +3610,7 @@
         <v>147</v>
       </c>
       <c r="H58" s="25" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -3640,7 +3636,7 @@
         <v>151</v>
       </c>
       <c r="H59" s="25" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -3666,7 +3662,7 @@
         <v>159</v>
       </c>
       <c r="H60" s="25" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -3692,7 +3688,7 @@
         <v>161</v>
       </c>
       <c r="H61" s="25" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
@@ -3718,7 +3714,7 @@
         <v>109</v>
       </c>
       <c r="H62" s="25" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
@@ -3744,7 +3740,7 @@
         <v>13.3</v>
       </c>
       <c r="H63" s="25" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
@@ -3770,7 +3766,7 @@
         <v>114</v>
       </c>
       <c r="H64" s="25" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
@@ -3796,7 +3792,7 @@
         <v>121</v>
       </c>
       <c r="H65" s="25" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
@@ -3822,7 +3818,7 @@
         <v>12</v>
       </c>
       <c r="H66" s="25" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -3848,7 +3844,7 @@
         <v>127</v>
       </c>
       <c r="H67" s="25" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
@@ -3874,7 +3870,7 @@
         <v>131</v>
       </c>
       <c r="H68" s="25" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
@@ -3900,7 +3896,7 @@
         <v>35</v>
       </c>
       <c r="H69" s="25" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
@@ -3926,7 +3922,7 @@
         <v>18</v>
       </c>
       <c r="H70" s="25" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
@@ -3952,7 +3948,7 @@
         <v>63</v>
       </c>
       <c r="H71" s="25" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
@@ -3978,7 +3974,7 @@
         <v>11</v>
       </c>
       <c r="H72" s="25" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
@@ -4004,7 +4000,7 @@
         <v>120</v>
       </c>
       <c r="H73" s="25" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="33" x14ac:dyDescent="0.25">
@@ -4030,7 +4026,7 @@
         <v>139</v>
       </c>
       <c r="H74" s="25" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
@@ -4056,7 +4052,7 @@
         <v>11</v>
       </c>
       <c r="H75" s="25" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
@@ -4082,7 +4078,7 @@
         <v>120</v>
       </c>
       <c r="H76" s="25" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
@@ -4108,7 +4104,7 @@
         <v>109</v>
       </c>
       <c r="H77" s="25" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
@@ -4133,8 +4129,8 @@
       <c r="G78" s="21">
         <v>13.3</v>
       </c>
-      <c r="H78" s="25" t="s">
-        <v>184</v>
+      <c r="H78" s="24" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
@@ -4160,7 +4156,7 @@
         <v>114</v>
       </c>
       <c r="H79" s="25" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
@@ -4186,7 +4182,7 @@
         <v>121</v>
       </c>
       <c r="H80" s="25" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
@@ -4212,7 +4208,7 @@
         <v>12</v>
       </c>
       <c r="H81" s="25" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
@@ -4368,7 +4364,7 @@
         <v>109</v>
       </c>
       <c r="H87" s="25" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
@@ -4394,7 +4390,7 @@
         <v>13.3</v>
       </c>
       <c r="H88" s="25" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
@@ -4420,7 +4416,7 @@
         <v>114</v>
       </c>
       <c r="H89" s="25" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
@@ -4446,7 +4442,7 @@
         <v>121</v>
       </c>
       <c r="H90" s="25" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
@@ -4472,7 +4468,7 @@
         <v>12</v>
       </c>
       <c r="H91" s="25" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
@@ -4498,7 +4494,7 @@
         <v>167</v>
       </c>
       <c r="H92" s="25" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
@@ -4524,7 +4520,7 @@
         <v>174</v>
       </c>
       <c r="H93" s="25" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
@@ -4532,25 +4528,25 @@
         <v>178</v>
       </c>
       <c r="B94" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C94" s="14" t="s">
         <v>189</v>
       </c>
-      <c r="C94" s="14" t="s">
+      <c r="D94" s="14" t="s">
         <v>190</v>
       </c>
-      <c r="D94" s="14" t="s">
+      <c r="E94" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="E94" s="14" t="s">
+      <c r="F94" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="F94" s="14" t="s">
-        <v>193</v>
-      </c>
       <c r="G94" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H94" s="25" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
@@ -4558,25 +4554,25 @@
         <v>178</v>
       </c>
       <c r="B95" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C95" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="C95" s="14" t="s">
+      <c r="D95" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="E95" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="D95" s="14" t="s">
+      <c r="F95" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="E95" s="14" t="s">
-        <v>196</v>
-      </c>
-      <c r="F95" s="14" t="s">
-        <v>198</v>
-      </c>
       <c r="G95" s="14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H95" s="25" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
@@ -4584,16 +4580,16 @@
         <v>178</v>
       </c>
       <c r="B96" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="C96" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="C96" s="14" t="s">
+      <c r="D96" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="D96" s="14" t="s">
+      <c r="E96" s="14" t="s">
         <v>201</v>
-      </c>
-      <c r="E96" s="14" t="s">
-        <v>202</v>
       </c>
       <c r="F96" s="14" t="s">
         <v>174</v>
@@ -4602,7 +4598,7 @@
         <v>174</v>
       </c>
       <c r="H96" s="25" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
@@ -4610,51 +4606,51 @@
         <v>178</v>
       </c>
       <c r="B97" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C97" s="14" t="s">
         <v>203</v>
       </c>
-      <c r="C97" s="14" t="s">
+      <c r="D97" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="D97" s="14" t="s">
+      <c r="E97" s="14" t="s">
         <v>205</v>
       </c>
-      <c r="E97" s="14" t="s">
+      <c r="F97" s="14" t="s">
         <v>206</v>
       </c>
-      <c r="F97" s="14" t="s">
-        <v>207</v>
-      </c>
       <c r="G97" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H97" s="25" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="B98" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="B98" s="5" t="s">
+      <c r="C98" s="14" t="s">
         <v>209</v>
       </c>
-      <c r="C98" s="14" t="s">
+      <c r="D98" s="14" t="s">
         <v>210</v>
       </c>
-      <c r="D98" s="14" t="s">
+      <c r="E98" s="14" t="s">
         <v>211</v>
       </c>
-      <c r="E98" s="14" t="s">
+      <c r="F98" s="14" t="s">
         <v>212</v>
       </c>
-      <c r="F98" s="14" t="s">
-        <v>213</v>
-      </c>
       <c r="G98" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H98" s="25" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
@@ -4662,25 +4658,25 @@
         <v>178</v>
       </c>
       <c r="B99" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C99" s="14" t="s">
         <v>214</v>
       </c>
-      <c r="C99" s="14" t="s">
+      <c r="D99" s="14" t="s">
         <v>215</v>
       </c>
-      <c r="D99" s="14" t="s">
+      <c r="E99" s="14" t="s">
         <v>216</v>
       </c>
-      <c r="E99" s="14" t="s">
+      <c r="F99" s="14" t="s">
         <v>217</v>
       </c>
-      <c r="F99" s="14" t="s">
-        <v>218</v>
-      </c>
       <c r="G99" s="14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H99" s="25" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
@@ -4688,25 +4684,25 @@
         <v>178</v>
       </c>
       <c r="B100" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="C100" s="14" t="s">
         <v>219</v>
       </c>
-      <c r="C100" s="14" t="s">
+      <c r="D100" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="E100" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="F100" s="14" t="s">
         <v>220</v>
       </c>
-      <c r="D100" s="14" t="s">
-        <v>223</v>
-      </c>
-      <c r="E100" s="14" t="s">
-        <v>222</v>
-      </c>
-      <c r="F100" s="14" t="s">
-        <v>221</v>
-      </c>
       <c r="G100" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H100" s="25" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
@@ -4714,25 +4710,25 @@
         <v>178</v>
       </c>
       <c r="B101" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="C101" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="D101" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="E101" s="14" t="s">
         <v>224</v>
       </c>
-      <c r="C101" s="14" t="s">
+      <c r="F101" s="14" t="s">
         <v>227</v>
       </c>
-      <c r="D101" s="14" t="s">
-        <v>226</v>
-      </c>
-      <c r="E101" s="14" t="s">
-        <v>225</v>
-      </c>
-      <c r="F101" s="14" t="s">
-        <v>228</v>
-      </c>
       <c r="G101" s="14" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H101" s="25" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
@@ -4740,25 +4736,25 @@
         <v>178</v>
       </c>
       <c r="B102" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="C102" s="14" t="s">
         <v>229</v>
       </c>
-      <c r="C102" s="14" t="s">
+      <c r="D102" s="14" t="s">
         <v>230</v>
       </c>
-      <c r="D102" s="14" t="s">
+      <c r="E102" s="14" t="s">
         <v>231</v>
       </c>
-      <c r="E102" s="14" t="s">
+      <c r="F102" s="14" t="s">
         <v>232</v>
       </c>
-      <c r="F102" s="14" t="s">
-        <v>233</v>
-      </c>
       <c r="G102" s="14" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H102" s="25" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
@@ -4766,25 +4762,25 @@
         <v>178</v>
       </c>
       <c r="B103" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="C103" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="C103" s="14" t="s">
+      <c r="D103" s="14" t="s">
         <v>235</v>
       </c>
-      <c r="D103" s="14" t="s">
+      <c r="E103" s="14" t="s">
         <v>236</v>
       </c>
-      <c r="E103" s="14" t="s">
+      <c r="F103" s="14" t="s">
         <v>237</v>
       </c>
-      <c r="F103" s="14" t="s">
-        <v>238</v>
-      </c>
       <c r="G103" s="14" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H103" s="25" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
@@ -4792,25 +4788,25 @@
         <v>178</v>
       </c>
       <c r="B104" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="C104" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="C104" s="14" t="s">
+      <c r="D104" s="14" t="s">
         <v>240</v>
       </c>
-      <c r="D104" s="14" t="s">
+      <c r="E104" s="14" t="s">
         <v>241</v>
       </c>
-      <c r="E104" s="14" t="s">
+      <c r="F104" s="14" t="s">
         <v>242</v>
       </c>
-      <c r="F104" s="14" t="s">
-        <v>243</v>
-      </c>
       <c r="G104" s="14" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H104" s="25" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
@@ -4818,25 +4814,25 @@
         <v>178</v>
       </c>
       <c r="B105" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="C105" s="14" t="s">
         <v>244</v>
       </c>
-      <c r="C105" s="14" t="s">
+      <c r="D105" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="D105" s="14" t="s">
+      <c r="E105" s="14" t="s">
         <v>246</v>
       </c>
-      <c r="E105" s="14" t="s">
+      <c r="F105" s="14" t="s">
         <v>247</v>
       </c>
-      <c r="F105" s="14" t="s">
-        <v>248</v>
-      </c>
       <c r="G105" s="14" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H105" s="25" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
@@ -4844,25 +4840,25 @@
         <v>178</v>
       </c>
       <c r="B106" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="C106" s="14" t="s">
         <v>249</v>
       </c>
-      <c r="C106" s="14" t="s">
+      <c r="D106" s="14" t="s">
         <v>250</v>
       </c>
-      <c r="D106" s="14" t="s">
+      <c r="E106" s="14" t="s">
         <v>251</v>
       </c>
-      <c r="E106" s="14" t="s">
+      <c r="F106" s="14" t="s">
         <v>252</v>
       </c>
-      <c r="F106" s="14" t="s">
-        <v>253</v>
-      </c>
       <c r="G106" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H106" s="25" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
@@ -4870,25 +4866,25 @@
         <v>178</v>
       </c>
       <c r="B107" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="C107" s="14" t="s">
         <v>254</v>
       </c>
-      <c r="C107" s="14" t="s">
+      <c r="D107" s="14" t="s">
         <v>255</v>
       </c>
-      <c r="D107" s="14" t="s">
+      <c r="E107" s="14" t="s">
         <v>256</v>
       </c>
-      <c r="E107" s="14" t="s">
+      <c r="F107" s="14" t="s">
         <v>257</v>
       </c>
-      <c r="F107" s="14" t="s">
-        <v>258</v>
-      </c>
       <c r="G107" s="14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H107" s="25" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
@@ -4896,25 +4892,25 @@
         <v>178</v>
       </c>
       <c r="B108" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="C108" s="14" t="s">
         <v>259</v>
       </c>
-      <c r="C108" s="14" t="s">
+      <c r="D108" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="D108" s="14" t="s">
+      <c r="E108" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="E108" s="14" t="s">
+      <c r="F108" s="14" t="s">
         <v>262</v>
       </c>
-      <c r="F108" s="14" t="s">
-        <v>263</v>
-      </c>
       <c r="G108" s="14" t="s">
-        <v>262</v>
-      </c>
-      <c r="H108" s="25" t="s">
-        <v>184</v>
+        <v>261</v>
+      </c>
+      <c r="H108" s="24" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
@@ -4922,25 +4918,25 @@
         <v>178</v>
       </c>
       <c r="B109" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="C109" s="14" t="s">
         <v>264</v>
       </c>
-      <c r="C109" s="14" t="s">
+      <c r="D109" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="D109" s="14" t="s">
+      <c r="E109" s="14" t="s">
         <v>266</v>
       </c>
-      <c r="E109" s="14" t="s">
+      <c r="F109" s="14" t="s">
         <v>267</v>
       </c>
-      <c r="F109" s="14" t="s">
-        <v>268</v>
-      </c>
       <c r="G109" s="14" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H109" s="25" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
@@ -4948,25 +4944,25 @@
         <v>178</v>
       </c>
       <c r="B110" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="C110" s="14" t="s">
         <v>269</v>
       </c>
-      <c r="C110" s="14" t="s">
+      <c r="D110" s="14" t="s">
         <v>270</v>
       </c>
-      <c r="D110" s="14" t="s">
+      <c r="E110" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="E110" s="14" t="s">
+      <c r="F110" s="14" t="s">
         <v>272</v>
       </c>
-      <c r="F110" s="14" t="s">
-        <v>273</v>
-      </c>
       <c r="G110" s="14" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H110" s="25" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
@@ -4974,25 +4970,25 @@
         <v>178</v>
       </c>
       <c r="B111" s="26" t="s">
+        <v>273</v>
+      </c>
+      <c r="C111" s="14" t="s">
         <v>274</v>
       </c>
-      <c r="C111" s="14" t="s">
+      <c r="D111" s="14" t="s">
         <v>275</v>
       </c>
-      <c r="D111" s="14" t="s">
+      <c r="E111" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="E111" s="14" t="s">
+      <c r="F111" s="14" t="s">
         <v>277</v>
       </c>
-      <c r="F111" s="14" t="s">
-        <v>278</v>
-      </c>
       <c r="G111" s="14" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H111" s="25" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
@@ -5000,22 +4996,22 @@
         <v>178</v>
       </c>
       <c r="B112" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="C112" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="C112" s="14" t="s">
+      <c r="D112" s="14" t="s">
         <v>280</v>
       </c>
-      <c r="D112" s="14" t="s">
+      <c r="E112" s="14" t="s">
         <v>281</v>
       </c>
-      <c r="E112" s="14" t="s">
+      <c r="F112" s="14" t="s">
         <v>282</v>
       </c>
-      <c r="F112" s="14" t="s">
-        <v>283</v>
-      </c>
       <c r="G112" s="14" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H112" s="25" t="s">
         <v>185</v>
@@ -5026,22 +5022,22 @@
         <v>178</v>
       </c>
       <c r="B113" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="C113" s="14" t="s">
         <v>284</v>
       </c>
-      <c r="C113" s="14" t="s">
+      <c r="D113" s="14" t="s">
         <v>285</v>
       </c>
-      <c r="D113" s="14" t="s">
+      <c r="E113" s="14" t="s">
         <v>286</v>
       </c>
-      <c r="E113" s="14" t="s">
+      <c r="F113" s="14" t="s">
         <v>287</v>
       </c>
-      <c r="F113" s="14" t="s">
-        <v>288</v>
-      </c>
       <c r="G113" s="14" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H113" s="25" t="s">
         <v>185</v>
@@ -5052,22 +5048,22 @@
         <v>178</v>
       </c>
       <c r="B114" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="C114" s="14" t="s">
         <v>289</v>
       </c>
-      <c r="C114" s="14" t="s">
+      <c r="D114" s="14" t="s">
         <v>290</v>
       </c>
-      <c r="D114" s="14" t="s">
+      <c r="E114" s="14" t="s">
         <v>291</v>
       </c>
-      <c r="E114" s="14" t="s">
+      <c r="F114" s="14" t="s">
         <v>292</v>
       </c>
-      <c r="F114" s="14" t="s">
-        <v>293</v>
-      </c>
       <c r="G114" s="14" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H114" s="25" t="s">
         <v>185</v>
@@ -5078,22 +5074,22 @@
         <v>178</v>
       </c>
       <c r="B115" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="C115" s="14" t="s">
         <v>294</v>
       </c>
-      <c r="C115" s="14" t="s">
+      <c r="D115" s="14" t="s">
         <v>295</v>
       </c>
-      <c r="D115" s="14" t="s">
+      <c r="E115" s="14" t="s">
         <v>296</v>
       </c>
-      <c r="E115" s="14" t="s">
+      <c r="F115" s="14" t="s">
         <v>297</v>
       </c>
-      <c r="F115" s="14" t="s">
-        <v>298</v>
-      </c>
       <c r="G115" s="14" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H115" s="25" t="s">
         <v>185</v>
@@ -5104,22 +5100,22 @@
         <v>178</v>
       </c>
       <c r="B116" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="C116" s="14" t="s">
         <v>299</v>
       </c>
-      <c r="C116" s="14" t="s">
+      <c r="D116" s="14" t="s">
         <v>300</v>
       </c>
-      <c r="D116" s="14" t="s">
+      <c r="E116" s="14" t="s">
         <v>301</v>
       </c>
-      <c r="E116" s="14" t="s">
+      <c r="F116" s="14" t="s">
         <v>302</v>
       </c>
-      <c r="F116" s="14" t="s">
-        <v>303</v>
-      </c>
       <c r="G116" s="14" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H116" s="25" t="s">
         <v>185</v>
@@ -5130,25 +5126,25 @@
         <v>178</v>
       </c>
       <c r="B117" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="C117" s="14" t="s">
         <v>304</v>
       </c>
-      <c r="C117" s="14" t="s">
+      <c r="D117" s="27" t="s">
         <v>305</v>
       </c>
-      <c r="D117" s="27" t="s">
+      <c r="E117" s="14" t="s">
         <v>306</v>
       </c>
-      <c r="E117" s="14" t="s">
+      <c r="F117" s="14" t="s">
         <v>307</v>
       </c>
-      <c r="F117" s="14" t="s">
-        <v>308</v>
-      </c>
       <c r="G117" s="22" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H117" s="25" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
@@ -5156,25 +5152,25 @@
         <v>178</v>
       </c>
       <c r="B118" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="C118" s="14" t="s">
         <v>309</v>
       </c>
-      <c r="C118" s="14" t="s">
+      <c r="D118" s="14" t="s">
         <v>310</v>
       </c>
-      <c r="D118" s="14" t="s">
+      <c r="E118" s="14" t="s">
         <v>311</v>
       </c>
-      <c r="E118" s="14" t="s">
+      <c r="F118" s="14" t="s">
         <v>312</v>
       </c>
-      <c r="F118" s="14" t="s">
-        <v>313</v>
-      </c>
       <c r="G118" s="14" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H118" s="25" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
@@ -5182,25 +5178,25 @@
         <v>178</v>
       </c>
       <c r="B119" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="C119" s="14" t="s">
         <v>314</v>
       </c>
-      <c r="C119" s="14" t="s">
+      <c r="D119" s="14" t="s">
         <v>315</v>
       </c>
-      <c r="D119" s="14" t="s">
+      <c r="E119" s="27" t="s">
+        <v>317</v>
+      </c>
+      <c r="F119" s="27" t="s">
         <v>316</v>
       </c>
-      <c r="E119" s="27" t="s">
-        <v>318</v>
-      </c>
-      <c r="F119" s="27" t="s">
-        <v>317</v>
-      </c>
       <c r="G119" s="27" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H119" s="25" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
@@ -5208,25 +5204,25 @@
         <v>178</v>
       </c>
       <c r="B120" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="C120" s="14" t="s">
         <v>319</v>
       </c>
-      <c r="C120" s="14" t="s">
+      <c r="D120" s="14" t="s">
         <v>320</v>
       </c>
-      <c r="D120" s="14" t="s">
+      <c r="E120" s="14" t="s">
         <v>321</v>
       </c>
-      <c r="E120" s="14" t="s">
+      <c r="F120" s="14" t="s">
         <v>322</v>
       </c>
-      <c r="F120" s="14" t="s">
-        <v>323</v>
-      </c>
       <c r="G120" s="14" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H120" s="25" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
@@ -5234,25 +5230,25 @@
         <v>178</v>
       </c>
       <c r="B121" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="C121" s="14" t="s">
         <v>324</v>
       </c>
-      <c r="C121" s="14" t="s">
+      <c r="D121" s="14" t="s">
         <v>325</v>
       </c>
-      <c r="D121" s="14" t="s">
+      <c r="E121" s="14" t="s">
         <v>326</v>
       </c>
-      <c r="E121" s="14" t="s">
+      <c r="F121" s="14" t="s">
         <v>327</v>
-      </c>
-      <c r="F121" s="14" t="s">
-        <v>328</v>
       </c>
       <c r="G121" s="22" t="s">
         <v>174</v>
       </c>
       <c r="H121" s="25" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">

--- a/backend/qa.xlsx
+++ b/backend/qa.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Temp\frdproject\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E05ABE2A-CA79-4164-9D1E-A7DCB7B32E95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{205753A3-DD5C-4DAC-96A9-77515D922056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{354D6938-7A67-4D52-BC71-C7A7A9C2CC14}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="345">
   <si>
     <t>A</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1479,6 +1479,66 @@
   </si>
   <si>
     <t>title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>She (hears) the boy (singing).</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hears, sings</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hearing, singing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hears, singing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hearing, sings</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(         ) see the girl dancing.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>He</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>She</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I like this soap as it (          ).</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tastes good</t>
+  </si>
+  <si>
+    <t>looks pretty</t>
+  </si>
+  <si>
+    <t>feel cold</t>
+  </si>
+  <si>
+    <t>tastes sour</t>
+  </si>
+  <si>
+    <t>I (                ). Please turn off the fan</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2089,8 +2149,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0D317D9-B6F3-487E-81C8-6670C7B98211}">
   <dimension ref="A1:H126"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -3046,22 +3106,22 @@
         <v>176</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>143</v>
+        <v>329</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>144</v>
+        <v>330</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>145</v>
+        <v>331</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>146</v>
+        <v>332</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="G37" s="20" t="s">
-        <v>144</v>
+        <v>333</v>
+      </c>
+      <c r="G37" s="12" t="s">
+        <v>332</v>
       </c>
       <c r="H37" s="25" t="s">
         <v>183</v>
@@ -3072,22 +3132,22 @@
         <v>176</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>148</v>
+        <v>334</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>149</v>
+        <v>335</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>150</v>
+        <v>336</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>147</v>
+        <v>337</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="G38" s="20" t="s">
-        <v>147</v>
+        <v>338</v>
+      </c>
+      <c r="G38" s="12" t="s">
+        <v>338</v>
       </c>
       <c r="H38" s="25" t="s">
         <v>183</v>
@@ -3098,22 +3158,22 @@
         <v>176</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>156</v>
+        <v>339</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>154</v>
+        <v>340</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>151</v>
+        <v>341</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>152</v>
+        <v>342</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="G39" s="20" t="s">
-        <v>151</v>
+        <v>343</v>
+      </c>
+      <c r="G39" s="12" t="s">
+        <v>340</v>
       </c>
       <c r="H39" s="25" t="s">
         <v>183</v>
@@ -3124,22 +3184,22 @@
         <v>176</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>155</v>
+        <v>344</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>157</v>
+        <v>340</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>153</v>
+        <v>341</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>158</v>
+        <v>342</v>
       </c>
       <c r="F40" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="G40" s="20" t="s">
-        <v>159</v>
+        <v>343</v>
+      </c>
+      <c r="G40" s="12" t="s">
+        <v>342</v>
       </c>
       <c r="H40" s="25" t="s">
         <v>183</v>

--- a/backend/qa.xlsx
+++ b/backend/qa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Temp\frdproject\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{205753A3-DD5C-4DAC-96A9-77515D922056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DFA3129-6367-49DE-9E6B-FD070AD4CAB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{354D6938-7A67-4D52-BC71-C7A7A9C2CC14}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="492">
   <si>
     <t>A</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1541,11 +1541,643 @@
     <t>I (                ). Please turn off the fan</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>I (            ) someone poking my back.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>felt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>feel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>feeling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>am feeling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This is his yoyo
+This is (        ).</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>him</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>my</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>her</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>his</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">The chicks are walking after (         ) mother. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>their</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Joey is my best friend. We are both (          ) Class 3A.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>on</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>of</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>at</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ann: (            ) do you like Mathematics?
+Emily: I like Mathematics because it is fun.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Which</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Why</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Who</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>My mother looks (         ) me when I am unwell.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>after</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>before</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>for</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kitty: (          ) do you go jogging?
+Amy: I always go jogging in the evening.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>When</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Where</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>How</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> I had a buffet dinner last week. It  _______(be) great!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>was</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>were</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This morning, I _________(not feel) well</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>don't feel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>didn't felt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>didn't feel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>not felt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Please behave (            ). Don't play in the classroom.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yourself</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>himself</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>myselft</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ourselves</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This is John, (              ) is my boyfriend.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>where</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>whose</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>which</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>why</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Please pick (             ) the phone.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>into</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The printer is out (             ) order.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>off</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The rich man has donated a lot of money.
+A lot of money (            ) by the rich man.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>has donated</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>donated</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>has been donated</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>had been donated</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fool's Day is the festival (               ) we can play tricks on others</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>when</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>how</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>把雪櫃長期打開</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>David ____________(lose) his wallet two days ago.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>have just lost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>has lost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>has lose</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>have lost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下列哪一項數的數值和其他的不同？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3\3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11\11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7\9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>633ad59fc83a09cf37a04801</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7/(           ) = 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以下哪個分數與其他的不同類？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7份之21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15份之31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2份之7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8份之1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以下哪個分數最接近 2？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1又8份之1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8份之15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8份之8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1又8份之3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8份之3 加  8份之1等於?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8份之4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2份之1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4份之2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小美的體重是  35又5份之1 公斤，家怡比小美輕  2又5份之2  公斤，她們二人共重多少公斤？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>73公斤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>72又5份之4公斤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>37又5份之3公斤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>38公斤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果「★ ÷ 12 = 4…▲」，那麼▲的值最大是甚麼？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>假如你現在面向西北方，順時針轉 2 個直角，你右方是哪個方向？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西南方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>東北方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>東南方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300 以內，47 的最大倍數是甚麼？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>貨倉內，16 公斤裝狗糧有 50 包，20 公斤裝狗糧則有 30 包，狗糧的總重量
+比貓糧重四分之一，貓糧的總重量是多少公斤？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>請用 6, 8, 9, 0, 1, 2, 3, 4 組成最小的八位雙數:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超市大減價 , 青蘋果每個 4 元，買五送一，小聰有 30 元，最多可以買多少個？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">下列哪一個圖形有最多對稱軸？ </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梯形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正方形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三角形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圓形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生日會上，家明喝了汽水 560mL , 欣欣比家明多喝 50mL ，又比家偉多喝
+80mL 。他們平均每人喝了多少 mL?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>媽媽以七五折買了一條裙子，付款 500 元，找回 275 元， _x001A_
+裙子的原價是多少？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兩條絲帶分別可圍出兩個面積是 49cm2 和 144cm2 的正方形，
+這兩條絲帶共長多少 cm?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>某偶像團體四位成員甲、乙、丙、丁的身高各異， 
+甲的身高是 193cm，乙的身高是 1.6m，丙比乙高
+13 厘米，但比四人平均高度還矮了 2厘米，丁的
+身高是多少米？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大約566</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大約530</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大約610</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大約560</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A. 她用湯勺挖了一些糯米，
+B. 將糯米倒進捲好的粽葉裏，
+C. 然後用咸水草把粽子綁好。
+D. 奶奶真會包粽子。
+（ 　） → （ 　）→ （ 　）→ （ 　）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D&gt;A&gt;B&gt;C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B&gt;A&gt;D&gt;C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C&gt;B&gt;D&gt;A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>爸爸為了省錢，每天步行半小時上班，不乘搭交通工具，十分 (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>節約</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>節儉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>節流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吝嗇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辨別下列句子運用的修辭手法
+哥哥活像一個焚化爐，不管甚麼食物都能消滅。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>對偶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>設問</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>明喻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗喻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>他因為一次的成功，就變得甚麼也 (               )，朋友都漸疏遠他。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目無法紀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">目眩神迷 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目中無人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目瞪口呆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辨別下列句子的修辭手法。
+早上，朝陽緩緩從東方升起；黃昏，夕陽徐徐從西方落下。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>異口同聲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>舐犢情深</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>閉門造車</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>得意忘形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有些人一受到表揚就 (           )，一挨批評就垂頭喪氣。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 當我問到孩子們是否喜歡假日，大家都 (              )地答：「是！」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>找錯別字
+在新冠疫情的影響下，世界經濟陷入簫條的境地。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>濟-&gt;齊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冠-&gt;官</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>簫-&gt;蕭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>境-&gt;鏡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+  </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1748,7 +2380,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1831,6 +2463,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2149,14 +2787,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0D317D9-B6F3-487E-81C8-6670C7B98211}">
   <dimension ref="A1:H126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="2" max="2" width="68.75" customWidth="1"/>
+    <col min="2" max="2" width="80.5" customWidth="1"/>
     <col min="3" max="3" width="29.75" customWidth="1"/>
     <col min="4" max="4" width="25.875" customWidth="1"/>
     <col min="5" max="5" width="29.75" customWidth="1"/>
@@ -2711,53 +3349,53 @@
         <v>180</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>175</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>81</v>
+        <v>461</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>80</v>
+        <v>462</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>82</v>
+        <v>463</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>83</v>
+        <v>464</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="G22" s="18" t="s">
-        <v>80</v>
+        <v>14</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>462</v>
       </c>
       <c r="H22" s="25" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="33" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>175</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>85</v>
+        <v>465</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>87</v>
+        <v>466</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>88</v>
+        <v>467</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>86</v>
+        <v>468</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="G23" s="19" t="s">
-        <v>86</v>
+        <v>469</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>467</v>
       </c>
       <c r="H23" s="25" t="s">
         <v>185</v>
@@ -2768,48 +3406,48 @@
         <v>175</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>90</v>
+        <v>470</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>91</v>
+        <v>471</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>92</v>
+        <v>472</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>93</v>
+        <v>473</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="G24" s="19" t="s">
-        <v>91</v>
+        <v>474</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>473</v>
       </c>
       <c r="H24" s="25" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="33" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>175</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>95</v>
+        <v>475</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>96</v>
+        <v>478</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>97</v>
+        <v>476</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>98</v>
+        <v>477</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="G25" s="19" t="s">
-        <v>97</v>
+        <v>479</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>478</v>
       </c>
       <c r="H25" s="25" t="s">
         <v>185</v>
@@ -2820,74 +3458,74 @@
         <v>175</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>100</v>
+        <v>480</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>101</v>
+        <v>471</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>102</v>
+        <v>472</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>103</v>
+        <v>473</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="G26" s="19" t="s">
-        <v>104</v>
+        <v>474</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>471</v>
       </c>
       <c r="H26" s="25" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>175</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>81</v>
+        <v>485</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>80</v>
+        <v>481</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>82</v>
+        <v>482</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>83</v>
+        <v>483</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="G27" s="18" t="s">
-        <v>80</v>
+        <v>484</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>484</v>
       </c>
       <c r="H27" s="25" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="33" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>175</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="F28" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="G28" s="19" t="s">
-        <v>86</v>
+        <v>486</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>481</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>482</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>483</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>484</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>481</v>
       </c>
       <c r="H28" s="25" t="s">
         <v>186</v>
@@ -2898,22 +3536,22 @@
         <v>175</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>90</v>
+        <v>487</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>91</v>
+        <v>488</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>92</v>
+        <v>489</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>93</v>
+        <v>490</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="G29" s="19" t="s">
-        <v>91</v>
+        <v>491</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>490</v>
       </c>
       <c r="H29" s="25" t="s">
         <v>186</v>
@@ -3340,48 +3978,48 @@
         <v>176</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>160</v>
+        <v>345</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>162</v>
+        <v>346</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>161</v>
+        <v>347</v>
       </c>
       <c r="E46" s="12" t="s">
-        <v>163</v>
+        <v>348</v>
       </c>
       <c r="F46" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="G46" s="20" t="s">
-        <v>161</v>
+        <v>349</v>
+      </c>
+      <c r="G46" s="12" t="s">
+        <v>347</v>
       </c>
       <c r="H46" s="25" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="33" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="B47" s="3" t="s">
-        <v>143</v>
+      <c r="B47" s="28" t="s">
+        <v>350</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>144</v>
+        <v>353</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>145</v>
+        <v>352</v>
       </c>
       <c r="E47" s="12" t="s">
-        <v>146</v>
+        <v>354</v>
       </c>
       <c r="F47" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="G47" s="20" t="s">
-        <v>144</v>
+        <v>351</v>
+      </c>
+      <c r="G47" s="12" t="s">
+        <v>351</v>
       </c>
       <c r="H47" s="25" t="s">
         <v>180</v>
@@ -3392,22 +4030,22 @@
         <v>176</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>148</v>
+        <v>355</v>
       </c>
       <c r="C48" s="12" t="s">
         <v>149</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>150</v>
+        <v>356</v>
       </c>
       <c r="E48" s="12" t="s">
         <v>147</v>
       </c>
       <c r="F48" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="G48" s="20" t="s">
-        <v>147</v>
+        <v>352</v>
+      </c>
+      <c r="G48" s="12" t="s">
+        <v>356</v>
       </c>
       <c r="H48" s="24" t="s">
         <v>179</v>
@@ -3418,48 +4056,48 @@
         <v>176</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>156</v>
+        <v>357</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>154</v>
+        <v>358</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>151</v>
+        <v>359</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>152</v>
+        <v>360</v>
       </c>
       <c r="F49" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="G49" s="20" t="s">
-        <v>151</v>
+        <v>361</v>
+      </c>
+      <c r="G49" s="12" t="s">
+        <v>358</v>
       </c>
       <c r="H49" s="25" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" ht="33" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="B50" s="3" t="s">
-        <v>155</v>
+      <c r="B50" s="28" t="s">
+        <v>362</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>157</v>
+        <v>363</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>153</v>
+        <v>366</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>158</v>
+        <v>364</v>
       </c>
       <c r="F50" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="G50" s="20" t="s">
-        <v>159</v>
+        <v>365</v>
+      </c>
+      <c r="G50" s="12" t="s">
+        <v>365</v>
       </c>
       <c r="H50" s="25" t="s">
         <v>179</v>
@@ -3470,48 +4108,48 @@
         <v>176</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>160</v>
+        <v>367</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>162</v>
+        <v>361</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>161</v>
+        <v>370</v>
       </c>
       <c r="E51" s="12" t="s">
-        <v>163</v>
+        <v>368</v>
       </c>
       <c r="F51" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="G51" s="20" t="s">
-        <v>161</v>
+        <v>369</v>
+      </c>
+      <c r="G51" s="12" t="s">
+        <v>368</v>
       </c>
       <c r="H51" s="25" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="33" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="B52" s="3" t="s">
-        <v>143</v>
+      <c r="B52" s="28" t="s">
+        <v>371</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>144</v>
+        <v>373</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>145</v>
+        <v>372</v>
       </c>
       <c r="E52" s="12" t="s">
-        <v>146</v>
+        <v>366</v>
       </c>
       <c r="F52" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="G52" s="20" t="s">
-        <v>144</v>
+        <v>374</v>
+      </c>
+      <c r="G52" s="12" t="s">
+        <v>372</v>
       </c>
       <c r="H52" s="25" t="s">
         <v>185</v>
@@ -3522,22 +4160,22 @@
         <v>176</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>148</v>
+        <v>375</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>149</v>
+        <v>376</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>150</v>
+        <v>377</v>
       </c>
       <c r="E53" s="12" t="s">
-        <v>147</v>
+        <v>378</v>
       </c>
       <c r="F53" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="G53" s="20" t="s">
-        <v>147</v>
+        <v>154</v>
+      </c>
+      <c r="G53" s="12" t="s">
+        <v>376</v>
       </c>
       <c r="H53" s="25" t="s">
         <v>185</v>
@@ -3548,22 +4186,22 @@
         <v>176</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>156</v>
+        <v>379</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>154</v>
+        <v>380</v>
       </c>
       <c r="D54" s="12" t="s">
-        <v>151</v>
+        <v>381</v>
       </c>
       <c r="E54" s="12" t="s">
-        <v>152</v>
+        <v>382</v>
       </c>
       <c r="F54" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="G54" s="20" t="s">
-        <v>151</v>
+        <v>383</v>
+      </c>
+      <c r="G54" s="12" t="s">
+        <v>382</v>
       </c>
       <c r="H54" s="25" t="s">
         <v>185</v>
@@ -3574,22 +4212,22 @@
         <v>176</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>155</v>
+        <v>384</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>157</v>
+        <v>388</v>
       </c>
       <c r="D55" s="12" t="s">
-        <v>153</v>
+        <v>387</v>
       </c>
       <c r="E55" s="12" t="s">
-        <v>158</v>
+        <v>386</v>
       </c>
       <c r="F55" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="G55" s="20" t="s">
-        <v>159</v>
+        <v>385</v>
+      </c>
+      <c r="G55" s="12" t="s">
+        <v>385</v>
       </c>
       <c r="H55" s="25" t="s">
         <v>185</v>
@@ -3600,22 +4238,22 @@
         <v>176</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>160</v>
+        <v>389</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>162</v>
+        <v>390</v>
       </c>
       <c r="D56" s="12" t="s">
-        <v>161</v>
+        <v>391</v>
       </c>
       <c r="E56" s="12" t="s">
-        <v>163</v>
+        <v>392</v>
       </c>
       <c r="F56" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="G56" s="20" t="s">
-        <v>161</v>
+        <v>393</v>
+      </c>
+      <c r="G56" s="12" t="s">
+        <v>391</v>
       </c>
       <c r="H56" s="25" t="s">
         <v>185</v>
@@ -3626,22 +4264,22 @@
         <v>176</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>143</v>
+        <v>394</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>144</v>
+        <v>370</v>
       </c>
       <c r="D57" s="12" t="s">
-        <v>145</v>
+        <v>395</v>
       </c>
       <c r="E57" s="12" t="s">
-        <v>146</v>
+        <v>359</v>
       </c>
       <c r="F57" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="G57" s="20" t="s">
-        <v>144</v>
+        <v>396</v>
+      </c>
+      <c r="G57" s="12" t="s">
+        <v>396</v>
       </c>
       <c r="H57" s="25" t="s">
         <v>186</v>
@@ -3652,48 +4290,48 @@
         <v>176</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>148</v>
+        <v>397</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>149</v>
+        <v>370</v>
       </c>
       <c r="D58" s="12" t="s">
-        <v>150</v>
+        <v>361</v>
       </c>
       <c r="E58" s="12" t="s">
-        <v>147</v>
+        <v>360</v>
       </c>
       <c r="F58" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="G58" s="20" t="s">
-        <v>147</v>
+        <v>398</v>
+      </c>
+      <c r="G58" s="12" t="s">
+        <v>360</v>
       </c>
       <c r="H58" s="25" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" ht="33" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="B59" s="3" t="s">
-        <v>156</v>
+      <c r="B59" s="28" t="s">
+        <v>399</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>154</v>
+        <v>403</v>
       </c>
       <c r="D59" s="12" t="s">
-        <v>151</v>
+        <v>402</v>
       </c>
       <c r="E59" s="12" t="s">
-        <v>152</v>
+        <v>401</v>
       </c>
       <c r="F59" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="G59" s="20" t="s">
-        <v>151</v>
+        <v>400</v>
+      </c>
+      <c r="G59" s="12" t="s">
+        <v>402</v>
       </c>
       <c r="H59" s="25" t="s">
         <v>186</v>
@@ -3704,22 +4342,22 @@
         <v>176</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>155</v>
+        <v>404</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>157</v>
+        <v>373</v>
       </c>
       <c r="D60" s="12" t="s">
-        <v>153</v>
+        <v>405</v>
       </c>
       <c r="E60" s="12" t="s">
-        <v>158</v>
+        <v>392</v>
       </c>
       <c r="F60" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="G60" s="20" t="s">
-        <v>159</v>
+        <v>406</v>
+      </c>
+      <c r="G60" s="12" t="s">
+        <v>392</v>
       </c>
       <c r="H60" s="25" t="s">
         <v>186</v>
@@ -3730,22 +4368,22 @@
         <v>176</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>160</v>
+        <v>408</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>162</v>
+        <v>409</v>
       </c>
       <c r="D61" s="12" t="s">
-        <v>161</v>
+        <v>410</v>
       </c>
       <c r="E61" s="12" t="s">
-        <v>163</v>
+        <v>411</v>
       </c>
       <c r="F61" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="G61" s="20" t="s">
-        <v>161</v>
+        <v>412</v>
+      </c>
+      <c r="G61" s="12" t="s">
+        <v>411</v>
       </c>
       <c r="H61" s="25" t="s">
         <v>186</v>
@@ -4094,22 +4732,22 @@
         <v>177</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>136</v>
+        <v>413</v>
       </c>
       <c r="C75" s="13">
-        <v>11</v>
-      </c>
-      <c r="D75" s="13">
-        <v>5</v>
-      </c>
-      <c r="E75" s="13">
-        <v>15</v>
-      </c>
-      <c r="F75" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="G75" s="21">
-        <v>11</v>
+        <v>1</v>
+      </c>
+      <c r="D75" s="29" t="s">
+        <v>414</v>
+      </c>
+      <c r="E75" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="F75" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="G75" s="13" t="s">
+        <v>416</v>
       </c>
       <c r="H75" s="25" t="s">
         <v>184</v>
@@ -4117,22 +4755,22 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
-        <v>177</v>
+        <v>417</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>137</v>
+        <v>418</v>
       </c>
       <c r="C76" s="13">
-        <v>140</v>
+        <v>7</v>
       </c>
       <c r="D76" s="13">
-        <v>120</v>
+        <v>6</v>
       </c>
       <c r="E76" s="13">
-        <v>130</v>
+        <v>14</v>
       </c>
       <c r="F76" s="13">
-        <v>150</v>
+        <v>1</v>
       </c>
       <c r="G76" s="21">
         <v>120</v>
@@ -4146,22 +4784,22 @@
         <v>177</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>105</v>
+        <v>419</v>
       </c>
       <c r="C77" s="13" t="s">
-        <v>106</v>
+        <v>420</v>
       </c>
       <c r="D77" s="13" t="s">
-        <v>107</v>
+        <v>421</v>
       </c>
       <c r="E77" s="13" t="s">
-        <v>108</v>
+        <v>422</v>
       </c>
       <c r="F77" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="G77" s="21" t="s">
-        <v>109</v>
+        <v>423</v>
+      </c>
+      <c r="G77" s="13" t="s">
+        <v>423</v>
       </c>
       <c r="H77" s="25" t="s">
         <v>180</v>
@@ -4172,22 +4810,22 @@
         <v>177</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C78" s="13">
-        <v>13.3</v>
-      </c>
-      <c r="D78" s="13">
-        <v>133</v>
-      </c>
-      <c r="E78" s="13">
-        <v>1.33</v>
+        <v>424</v>
+      </c>
+      <c r="C78" s="13" t="s">
+        <v>425</v>
+      </c>
+      <c r="D78" s="13" t="s">
+        <v>426</v>
+      </c>
+      <c r="E78" s="13" t="s">
+        <v>427</v>
       </c>
       <c r="F78" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="G78" s="21">
-        <v>13.3</v>
+        <v>428</v>
+      </c>
+      <c r="G78" s="13" t="s">
+        <v>426</v>
       </c>
       <c r="H78" s="24" t="s">
         <v>179</v>
@@ -4198,22 +4836,22 @@
         <v>177</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>112</v>
+        <v>429</v>
       </c>
       <c r="C79" s="13" t="s">
-        <v>113</v>
+        <v>430</v>
       </c>
       <c r="D79" s="13" t="s">
-        <v>114</v>
+        <v>431</v>
       </c>
       <c r="E79" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="F79" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="G79" s="21" t="s">
-        <v>114</v>
+        <v>432</v>
+      </c>
+      <c r="F79" s="13">
+        <v>8</v>
+      </c>
+      <c r="G79" s="13" t="s">
+        <v>431</v>
       </c>
       <c r="H79" s="25" t="s">
         <v>179</v>
@@ -4224,22 +4862,22 @@
         <v>177</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>117</v>
+        <v>433</v>
       </c>
       <c r="C80" s="13" t="s">
-        <v>118</v>
+        <v>434</v>
       </c>
       <c r="D80" s="13" t="s">
-        <v>119</v>
+        <v>435</v>
       </c>
       <c r="E80" s="13" t="s">
-        <v>120</v>
+        <v>436</v>
       </c>
       <c r="F80" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="G80" s="21" t="s">
-        <v>121</v>
+        <v>437</v>
+      </c>
+      <c r="G80" s="13" t="s">
+        <v>434</v>
       </c>
       <c r="H80" s="25" t="s">
         <v>179</v>
@@ -4250,22 +4888,22 @@
         <v>177</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>122</v>
+        <v>438</v>
       </c>
       <c r="C81" s="13">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D81" s="13">
+        <v>8</v>
+      </c>
+      <c r="E81" s="13">
         <v>11</v>
       </c>
-      <c r="E81" s="13">
+      <c r="F81" s="13">
         <v>12</v>
       </c>
-      <c r="F81" s="13">
-        <v>13</v>
-      </c>
-      <c r="G81" s="21">
-        <v>12</v>
+      <c r="G81" s="13">
+        <v>11</v>
       </c>
       <c r="H81" s="25" t="s">
         <v>180</v>
@@ -4275,23 +4913,23 @@
       <c r="A82" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="B82" s="4" t="s">
-        <v>105</v>
+      <c r="B82" s="16" t="s">
+        <v>439</v>
       </c>
       <c r="C82" s="13" t="s">
-        <v>106</v>
+        <v>440</v>
       </c>
       <c r="D82" s="13" t="s">
-        <v>107</v>
+        <v>442</v>
       </c>
       <c r="E82" s="13" t="s">
-        <v>108</v>
+        <v>441</v>
       </c>
       <c r="F82" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="G82" s="21" t="s">
-        <v>109</v>
+        <v>443</v>
+      </c>
+      <c r="G82" s="13" t="s">
+        <v>442</v>
       </c>
       <c r="H82" s="25" t="s">
         <v>185</v>
@@ -4302,48 +4940,48 @@
         <v>177</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>110</v>
+        <v>444</v>
       </c>
       <c r="C83" s="13">
-        <v>13.3</v>
+        <v>282</v>
       </c>
       <c r="D83" s="13">
-        <v>133</v>
+        <v>235</v>
       </c>
       <c r="E83" s="13">
-        <v>1.33</v>
-      </c>
-      <c r="F83" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="G83" s="21">
-        <v>13.3</v>
+        <v>292</v>
+      </c>
+      <c r="F83" s="13">
+        <v>280</v>
+      </c>
+      <c r="G83" s="13">
+        <v>282</v>
       </c>
       <c r="H83" s="25" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" ht="33" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="B84" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C84" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="D84" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="E84" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="F84" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="G84" s="21" t="s">
-        <v>114</v>
+      <c r="B84" s="16" t="s">
+        <v>445</v>
+      </c>
+      <c r="C84" s="13">
+        <v>1400</v>
+      </c>
+      <c r="D84" s="13">
+        <v>1000</v>
+      </c>
+      <c r="E84" s="13">
+        <v>1450</v>
+      </c>
+      <c r="F84" s="13">
+        <v>1050</v>
+      </c>
+      <c r="G84" s="13">
+        <v>1050</v>
       </c>
       <c r="H84" s="25" t="s">
         <v>185</v>
@@ -4354,22 +4992,22 @@
         <v>177</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C85" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="D85" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="E85" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="F85" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="G85" s="21" t="s">
-        <v>121</v>
+        <v>446</v>
+      </c>
+      <c r="C85" s="13">
+        <v>68901234</v>
+      </c>
+      <c r="D85" s="13">
+        <v>10234698</v>
+      </c>
+      <c r="E85" s="13">
+        <v>10234689</v>
+      </c>
+      <c r="F85" s="13">
+        <v>10234896</v>
+      </c>
+      <c r="G85" s="13">
+        <v>10234698</v>
       </c>
       <c r="H85" s="25" t="s">
         <v>185</v>
@@ -4379,23 +5017,23 @@
       <c r="A86" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="B86" s="4" t="s">
-        <v>122</v>
+      <c r="B86" s="16" t="s">
+        <v>447</v>
       </c>
       <c r="C86" s="13">
+        <v>7</v>
+      </c>
+      <c r="D86" s="13">
+        <v>8</v>
+      </c>
+      <c r="E86" s="13">
+        <v>9</v>
+      </c>
+      <c r="F86" s="13">
         <v>10</v>
       </c>
-      <c r="D86" s="13">
-        <v>11</v>
-      </c>
-      <c r="E86" s="13">
-        <v>12</v>
-      </c>
-      <c r="F86" s="13">
-        <v>13</v>
-      </c>
-      <c r="G86" s="21">
-        <v>12</v>
+      <c r="G86" s="13">
+        <v>8</v>
       </c>
       <c r="H86" s="25" t="s">
         <v>185</v>
@@ -4406,126 +5044,126 @@
         <v>177</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>105</v>
+        <v>448</v>
       </c>
       <c r="C87" s="13" t="s">
-        <v>106</v>
+        <v>449</v>
       </c>
       <c r="D87" s="13" t="s">
-        <v>107</v>
+        <v>450</v>
       </c>
       <c r="E87" s="13" t="s">
-        <v>108</v>
+        <v>451</v>
       </c>
       <c r="F87" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="G87" s="21" t="s">
-        <v>109</v>
+        <v>452</v>
+      </c>
+      <c r="G87" s="13" t="s">
+        <v>452</v>
       </c>
       <c r="H87" s="25" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" ht="66" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="B88" s="4" t="s">
-        <v>110</v>
+      <c r="B88" s="16" t="s">
+        <v>456</v>
       </c>
       <c r="C88" s="13">
-        <v>13.3</v>
+        <v>175</v>
       </c>
       <c r="D88" s="13">
-        <v>133</v>
+        <v>174</v>
       </c>
       <c r="E88" s="13">
-        <v>1.33</v>
-      </c>
-      <c r="F88" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="G88" s="21">
-        <v>13.3</v>
+        <v>173</v>
+      </c>
+      <c r="F88" s="13">
+        <v>172</v>
+      </c>
+      <c r="G88" s="13">
+        <v>175</v>
       </c>
       <c r="H88" s="25" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" ht="33" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="B89" s="4" t="s">
-        <v>112</v>
+      <c r="B89" s="16" t="s">
+        <v>453</v>
       </c>
       <c r="C89" s="13" t="s">
-        <v>113</v>
+        <v>460</v>
       </c>
       <c r="D89" s="13" t="s">
-        <v>114</v>
+        <v>459</v>
       </c>
       <c r="E89" s="13" t="s">
-        <v>115</v>
+        <v>458</v>
       </c>
       <c r="F89" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="G89" s="21" t="s">
-        <v>114</v>
+        <v>457</v>
+      </c>
+      <c r="G89" s="13" t="s">
+        <v>457</v>
       </c>
       <c r="H89" s="25" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" ht="33" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="B90" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C90" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="D90" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="E90" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="F90" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="G90" s="21" t="s">
-        <v>121</v>
+      <c r="B90" s="16" t="s">
+        <v>454</v>
+      </c>
+      <c r="C90" s="13">
+        <v>250</v>
+      </c>
+      <c r="D90" s="13">
+        <v>300</v>
+      </c>
+      <c r="E90" s="13">
+        <v>225</v>
+      </c>
+      <c r="F90" s="13">
+        <v>275</v>
+      </c>
+      <c r="G90" s="13">
+        <v>300</v>
       </c>
       <c r="H90" s="25" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" ht="33" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="B91" s="4" t="s">
-        <v>122</v>
+      <c r="B91" s="16" t="s">
+        <v>455</v>
       </c>
       <c r="C91" s="13">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D91" s="13">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="E91" s="13">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="F91" s="13">
-        <v>13</v>
-      </c>
-      <c r="G91" s="21">
-        <v>12</v>
+        <v>60</v>
+      </c>
+      <c r="G91" s="13">
+        <v>76</v>
       </c>
       <c r="H91" s="25" t="s">
         <v>186</v>
@@ -4652,10 +5290,10 @@
         <v>201</v>
       </c>
       <c r="F96" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="G96" s="22" t="s">
-        <v>174</v>
+        <v>407</v>
+      </c>
+      <c r="G96" s="14" t="s">
+        <v>201</v>
       </c>
       <c r="H96" s="25" t="s">
         <v>181</v>
@@ -5304,8 +5942,8 @@
       <c r="F121" s="14" t="s">
         <v>327</v>
       </c>
-      <c r="G121" s="22" t="s">
-        <v>174</v>
+      <c r="G121" s="14" t="s">
+        <v>324</v>
       </c>
       <c r="H121" s="25" t="s">
         <v>186</v>
